--- a/colbert/output/Results_colbert_avg_ingredients_bm25_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_avg_ingredients_bm25_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>93249</v>
+        <v>76808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76808</v>
+        <v>93249</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42522</v>
+        <v>112959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24701</v>
+        <v>76808</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>76808</v>
+        <v>24701</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>93249</v>
+        <v>74805</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74805</v>
+        <v>93249</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1827,11 +1827,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32271</v>
+        <v>62368</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>62368</v>
+        <v>32271</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -3002,11 +3002,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>62368</v>
+        <v>58651</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>62368</v>
+        <v>31490</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -3377,11 +3377,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -3402,11 +3402,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>35173</v>
+        <v>58651</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -3427,11 +3427,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>31490</v>
+        <v>35173</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -4352,11 +4352,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -4377,11 +4377,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -5852,11 +5852,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>39363</v>
+        <v>83062</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -5877,11 +5877,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>83062</v>
+        <v>39363</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6052,11 +6052,11 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>107699</v>
+        <v>39363</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>39363</v>
+        <v>107699</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -6202,11 +6202,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>93958</v>
+        <v>39363</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6302,11 +6302,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -6327,11 +6327,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>75452</v>
+        <v>39363</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6427,11 +6427,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>109439</v>
+        <v>75452</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -6452,11 +6452,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>93249</v>
+        <v>109439</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -7077,11 +7077,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -7277,11 +7277,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -7302,11 +7302,11 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>24701</v>
+        <v>35964</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -7327,11 +7327,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -7427,11 +7427,11 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>90921</v>
+        <v>39363</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -7452,11 +7452,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>24701</v>
+        <v>62368</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -7827,11 +7827,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -7902,11 +7902,11 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>60219</v>
+        <v>53402</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -7927,11 +7927,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>90921</v>
+        <v>60219</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>111875</v>
+        <v>90921</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -8752,11 +8752,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>32271</v>
+        <v>83025</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -8777,11 +8777,11 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>58651</v>
+        <v>35964</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -8802,11 +8802,11 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>83025</v>
+        <v>32271</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>35964</v>
+        <v>58651</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -8952,11 +8952,11 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -9052,11 +9052,11 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -9077,11 +9077,11 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>52804</v>
+        <v>71635</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>42522</v>
+        <v>52804</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -9177,11 +9177,11 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>52804</v>
+        <v>42522</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -9202,11 +9202,11 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>58651</v>
+        <v>83025</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9252,11 +9252,11 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>39363</v>
+        <v>58651</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -9277,11 +9277,11 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -9352,11 +9352,11 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9377,11 +9377,11 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>62368</v>
+        <v>58651</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -10002,11 +10002,11 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -10277,11 +10277,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>71635</v>
+        <v>62368</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10302,11 +10302,11 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>49262</v>
+        <v>71635</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -10327,11 +10327,11 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>62368</v>
+        <v>49262</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -10627,11 +10627,11 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>84797</v>
+        <v>62368</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10652,11 +10652,11 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>62368</v>
+        <v>84797</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -10752,11 +10752,11 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10777,11 +10777,11 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -10902,11 +10902,11 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>74805</v>
+        <v>62368</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10927,11 +10927,11 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>62368</v>
+        <v>74805</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -12327,11 +12327,11 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -13027,11 +13027,11 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -13277,11 +13277,11 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>99024</v>
+        <v>93249</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -13302,11 +13302,11 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>107699</v>
+        <v>58224</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -13327,11 +13327,11 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>93249</v>
+        <v>99024</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -13377,11 +13377,11 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>62368</v>
+        <v>54100</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -13402,11 +13402,11 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>71635</v>
+        <v>33606</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -13427,11 +13427,11 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>54100</v>
+        <v>62368</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -13452,11 +13452,11 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>99024</v>
+        <v>109439</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>83133</v>
+        <v>58224</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -13652,11 +13652,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>58224</v>
+        <v>109439</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -13677,11 +13677,11 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>109439</v>
+        <v>83133</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>42522</v>
+        <v>59952</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -13902,11 +13902,11 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>31490</v>
+        <v>109439</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -13927,11 +13927,11 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>60219</v>
+        <v>31490</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -13952,11 +13952,11 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>109439</v>
+        <v>60219</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -14027,11 +14027,11 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -14052,11 +14052,11 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -14077,11 +14077,11 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -14752,11 +14752,11 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>83133</v>
+        <v>87098</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -14777,11 +14777,11 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>87098</v>
+        <v>83133</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -14827,11 +14827,11 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -14877,11 +14877,11 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -14902,11 +14902,11 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>35173</v>
+        <v>100870</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftovers  spaghetti sauce</t>
         </is>
       </c>
     </row>
@@ -14927,11 +14927,11 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>107699</v>
+        <v>35173</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -14952,11 +14952,11 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>35653</v>
+        <v>107699</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -15102,11 +15102,11 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>93958</v>
+        <v>25775</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -15127,11 +15127,11 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>25775</v>
+        <v>93958</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>i yam what i yam  muffins</t>
         </is>
       </c>
     </row>
@@ -15527,11 +15527,11 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -16277,11 +16277,11 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -16677,11 +16677,11 @@
         </is>
       </c>
       <c r="D650" t="n">
-        <v>35653</v>
+        <v>25775</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -16702,11 +16702,11 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>83133</v>
+        <v>35653</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -17002,11 +17002,11 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -17077,11 +17077,11 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -17552,11 +17552,11 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -17577,11 +17577,11 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -17727,11 +17727,11 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>22123</v>
+        <v>63593</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -17752,11 +17752,11 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>58224</v>
+        <v>22123</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>i don t feel like cooking tonight  casserole</t>
         </is>
       </c>
     </row>
@@ -17777,11 +17777,11 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -17802,11 +17802,11 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>63593</v>
+        <v>39959</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -17827,11 +17827,11 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -17877,11 +17877,11 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>35964</v>
+        <v>25775</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -17902,11 +17902,11 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>39959</v>
+        <v>35964</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -17927,11 +17927,11 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>76808</v>
+        <v>39959</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -17952,11 +17952,11 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>32169</v>
+        <v>76808</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -18302,11 +18302,11 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -18327,11 +18327,11 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -19002,11 +19002,11 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -19027,11 +19027,11 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -19052,11 +19052,11 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -19077,11 +19077,11 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -19752,11 +19752,11 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -19777,11 +19777,11 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -19802,11 +19802,11 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -19827,11 +19827,11 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -19902,11 +19902,11 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -19927,11 +19927,11 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>109439</v>
+        <v>112959</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -19952,11 +19952,11 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>111875</v>
+        <v>109439</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -21102,11 +21102,11 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>83133</v>
+        <v>83873</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -21127,11 +21127,11 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>83873</v>
+        <v>83133</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -21402,11 +21402,11 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>107229</v>
+        <v>98930</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -21427,11 +21427,11 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>60219</v>
+        <v>107229</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -21452,11 +21452,11 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>98930</v>
+        <v>83873</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -23552,11 +23552,11 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -23577,11 +23577,11 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -24302,11 +24302,11 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -24327,11 +24327,11 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -26502,11 +26502,11 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -26552,11 +26552,11 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -26577,11 +26577,11 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -26902,11 +26902,11 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>35653</v>
+        <v>63793</v>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -26927,11 +26927,11 @@
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>63793</v>
+        <v>35653</v>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -26952,11 +26952,11 @@
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>84797</v>
+        <v>108804</v>
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>put down your fork   tuna and bean salad</t>
         </is>
       </c>
     </row>
@@ -27077,11 +27077,11 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>54100</v>
+        <v>90921</v>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -27152,11 +27152,11 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -27177,11 +27177,11 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>25775</v>
+        <v>32169</v>
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -27202,11 +27202,11 @@
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>84797</v>
+        <v>64302</v>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -27252,11 +27252,11 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>8559</v>
+        <v>90921</v>
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -27277,11 +27277,11 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>30131</v>
+        <v>38276</v>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -27302,11 +27302,11 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>64045</v>
+        <v>30131</v>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -27352,11 +27352,11 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>109439</v>
+        <v>90921</v>
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -27377,11 +27377,11 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>23933</v>
+        <v>109439</v>
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -27402,11 +27402,11 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>112959</v>
+        <v>23933</v>
       </c>
       <c r="E1079" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -27427,11 +27427,11 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>90921</v>
+        <v>112959</v>
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -28002,11 +28002,11 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -28027,11 +28027,11 @@
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -28752,11 +28752,11 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -28777,11 +28777,11 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -30227,11 +30227,11 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>83950</v>
+        <v>90921</v>
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -30252,11 +30252,11 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>33165</v>
+        <v>83950</v>
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>i can t believe it s low fat  creamy potato salad</t>
+          <t>real  italian bolognese sauce</t>
         </is>
       </c>
     </row>
@@ -30277,11 +30277,11 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>111875</v>
+        <v>33165</v>
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>i can t believe it s low fat  creamy potato salad</t>
         </is>
       </c>
     </row>
@@ -30302,11 +30302,11 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>23850</v>
+        <v>111875</v>
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -30327,11 +30327,11 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>90921</v>
+        <v>23850</v>
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -30402,11 +30402,11 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>112959</v>
+        <v>90921</v>
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -30427,11 +30427,11 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>95926</v>
+        <v>112959</v>
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -30452,11 +30452,11 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>60219</v>
+        <v>95926</v>
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -31452,11 +31452,11 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31677,11 +31677,11 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31702,11 +31702,11 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>35595</v>
+        <v>47366</v>
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -32777,11 +32777,11 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>95926</v>
+        <v>63793</v>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -32802,11 +32802,11 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -32852,11 +32852,11 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>35173</v>
+        <v>63793</v>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -32877,11 +32877,11 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>39959</v>
+        <v>87098</v>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -32902,11 +32902,11 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>95926</v>
+        <v>35173</v>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -32927,11 +32927,11 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>87098</v>
+        <v>39959</v>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -32952,11 +32952,11 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -33127,11 +33127,11 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>107517</v>
+        <v>87098</v>
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>boat house  collard greens</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -33152,11 +33152,11 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>87098</v>
+        <v>107517</v>
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>boat house  collard greens</t>
         </is>
       </c>
     </row>
@@ -33252,11 +33252,11 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>23850</v>
+        <v>93958</v>
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>i yam what i yam  muffins</t>
         </is>
       </c>
     </row>
@@ -33302,11 +33302,11 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>93958</v>
+        <v>23850</v>
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -33352,11 +33352,11 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>27087</v>
+        <v>63793</v>
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -33377,11 +33377,11 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>97052</v>
+        <v>27087</v>
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>off the cob  freezer corn</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -33402,11 +33402,11 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>23933</v>
+        <v>97052</v>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>off the cob  freezer corn</t>
         </is>
       </c>
     </row>
@@ -33427,11 +33427,11 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>71457</v>
+        <v>23933</v>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -33452,11 +33452,11 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>63793</v>
+        <v>71457</v>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -33552,11 +33552,11 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -33577,11 +33577,11 @@
         </is>
       </c>
       <c r="D1326" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -34252,11 +34252,11 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -34277,11 +34277,11 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -34302,11 +34302,11 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>25274</v>
+        <v>23850</v>
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -34427,11 +34427,11 @@
         </is>
       </c>
       <c r="D1360" t="n">
-        <v>25274</v>
+        <v>25775</v>
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -34452,11 +34452,11 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>25775</v>
+        <v>24701</v>
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -34652,11 +34652,11 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>30300</v>
+        <v>25775</v>
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -34677,11 +34677,11 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>42522</v>
+        <v>30300</v>
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -34702,11 +34702,11 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>25775</v>
+        <v>42522</v>
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -34902,11 +34902,11 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>35173</v>
+        <v>112959</v>
       </c>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -34927,11 +34927,11 @@
         </is>
       </c>
       <c r="D1380" t="n">
-        <v>53402</v>
+        <v>35173</v>
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -34952,11 +34952,11 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>23933</v>
+        <v>53402</v>
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -35502,11 +35502,11 @@
         </is>
       </c>
       <c r="D1403" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -35527,11 +35527,11 @@
         </is>
       </c>
       <c r="D1404" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -35927,11 +35927,11 @@
         </is>
       </c>
       <c r="D1420" t="n">
-        <v>60219</v>
+        <v>87098</v>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -35952,11 +35952,11 @@
         </is>
       </c>
       <c r="D1421" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -36252,11 +36252,11 @@
         </is>
       </c>
       <c r="D1433" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -36277,11 +36277,11 @@
         </is>
       </c>
       <c r="D1434" t="n">
-        <v>83133</v>
+        <v>84797</v>
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -36302,11 +36302,11 @@
         </is>
       </c>
       <c r="D1435" t="n">
-        <v>84797</v>
+        <v>64302</v>
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -36327,11 +36327,11 @@
         </is>
       </c>
       <c r="D1436" t="n">
-        <v>62368</v>
+        <v>108414</v>
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>jiffy  roasted corn and jalapeno cornbread</t>
         </is>
       </c>
     </row>
@@ -36452,11 +36452,11 @@
         </is>
       </c>
       <c r="D1441" t="n">
-        <v>111875</v>
+        <v>95926</v>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -37302,11 +37302,11 @@
         </is>
       </c>
       <c r="D1475" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -37327,11 +37327,11 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>59534</v>
+        <v>32169</v>
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -37377,11 +37377,11 @@
         </is>
       </c>
       <c r="D1478" t="n">
-        <v>25775</v>
+        <v>59952</v>
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -37402,11 +37402,11 @@
         </is>
       </c>
       <c r="D1479" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -37427,11 +37427,11 @@
         </is>
       </c>
       <c r="D1480" t="n">
-        <v>59952</v>
+        <v>32169</v>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -37577,11 +37577,11 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -37877,11 +37877,11 @@
         </is>
       </c>
       <c r="D1498" t="n">
-        <v>109439</v>
+        <v>35595</v>
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>pour over anything  mushroom gravy</t>
         </is>
       </c>
     </row>
@@ -37902,11 +37902,11 @@
         </is>
       </c>
       <c r="D1499" t="n">
-        <v>23933</v>
+        <v>109439</v>
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -37927,11 +37927,11 @@
         </is>
       </c>
       <c r="D1500" t="n">
-        <v>35595</v>
+        <v>59952</v>
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -37952,11 +37952,11 @@
         </is>
       </c>
       <c r="D1501" t="n">
-        <v>112959</v>
+        <v>23933</v>
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -38727,11 +38727,11 @@
         </is>
       </c>
       <c r="D1532" t="n">
-        <v>59534</v>
+        <v>23850</v>
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -38752,11 +38752,11 @@
         </is>
       </c>
       <c r="D1533" t="n">
-        <v>23850</v>
+        <v>137739</v>
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -38777,11 +38777,11 @@
         </is>
       </c>
       <c r="D1534" t="n">
-        <v>137739</v>
+        <v>59534</v>
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -38902,11 +38902,11 @@
         </is>
       </c>
       <c r="D1539" t="n">
-        <v>49262</v>
+        <v>137739</v>
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -38927,11 +38927,11 @@
         </is>
       </c>
       <c r="D1540" t="n">
-        <v>23850</v>
+        <v>87098</v>
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -38952,11 +38952,11 @@
         </is>
       </c>
       <c r="D1541" t="n">
-        <v>44123</v>
+        <v>23850</v>
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -39002,11 +39002,11 @@
         </is>
       </c>
       <c r="D1543" t="n">
-        <v>83873</v>
+        <v>137739</v>
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -39027,11 +39027,11 @@
         </is>
       </c>
       <c r="D1544" t="n">
-        <v>137739</v>
+        <v>41756</v>
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -39052,11 +39052,11 @@
         </is>
       </c>
       <c r="D1545" t="n">
-        <v>41756</v>
+        <v>83873</v>
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -39102,11 +39102,11 @@
         </is>
       </c>
       <c r="D1547" t="n">
-        <v>109439</v>
+        <v>137739</v>
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -39152,11 +39152,11 @@
         </is>
       </c>
       <c r="D1549" t="n">
-        <v>137739</v>
+        <v>109439</v>
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -39202,11 +39202,11 @@
         </is>
       </c>
       <c r="D1551" t="n">
-        <v>48156</v>
+        <v>93959</v>
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>i yam what i yam two  muffins</t>
         </is>
       </c>
     </row>
@@ -39327,11 +39327,11 @@
         </is>
       </c>
       <c r="D1556" t="n">
-        <v>60219</v>
+        <v>41756</v>
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -40227,11 +40227,11 @@
         </is>
       </c>
       <c r="D1592" t="n">
-        <v>107229</v>
+        <v>83873</v>
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -40252,11 +40252,11 @@
         </is>
       </c>
       <c r="D1593" t="n">
-        <v>83873</v>
+        <v>107229</v>
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -40277,11 +40277,11 @@
         </is>
       </c>
       <c r="D1594" t="n">
-        <v>54272</v>
+        <v>63986</v>
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>chicken lickin  good  pork chops</t>
         </is>
       </c>
     </row>
@@ -40302,11 +40302,11 @@
         </is>
       </c>
       <c r="D1595" t="n">
-        <v>63986</v>
+        <v>98930</v>
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -40327,11 +40327,11 @@
         </is>
       </c>
       <c r="D1596" t="n">
-        <v>98930</v>
+        <v>54272</v>
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -40352,11 +40352,11 @@
         </is>
       </c>
       <c r="D1597" t="n">
-        <v>42570</v>
+        <v>83873</v>
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -40377,11 +40377,11 @@
         </is>
       </c>
       <c r="D1598" t="n">
-        <v>83873</v>
+        <v>42570</v>
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -40452,11 +40452,11 @@
         </is>
       </c>
       <c r="D1601" t="n">
-        <v>44123</v>
+        <v>32169</v>
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -40702,11 +40702,11 @@
         </is>
       </c>
       <c r="D1611" t="n">
-        <v>48156</v>
+        <v>32169</v>
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -40952,11 +40952,11 @@
         </is>
       </c>
       <c r="D1621" t="n">
-        <v>24478</v>
+        <v>98930</v>
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -41502,11 +41502,11 @@
         </is>
       </c>
       <c r="D1643" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -41527,11 +41527,11 @@
         </is>
       </c>
       <c r="D1644" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -41552,11 +41552,11 @@
         </is>
       </c>
       <c r="D1645" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -41577,11 +41577,11 @@
         </is>
       </c>
       <c r="D1646" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -42252,11 +42252,11 @@
         </is>
       </c>
       <c r="D1673" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -42277,11 +42277,11 @@
         </is>
       </c>
       <c r="D1674" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -42302,11 +42302,11 @@
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -42327,11 +42327,11 @@
         </is>
       </c>
       <c r="D1676" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -44777,11 +44777,11 @@
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>95926</v>
+        <v>30300</v>
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -44827,11 +44827,11 @@
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>30300</v>
+        <v>95926</v>
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -44852,11 +44852,11 @@
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>83062</v>
+        <v>30300</v>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -44877,11 +44877,11 @@
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>30300</v>
+        <v>83062</v>
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -44952,11 +44952,11 @@
         </is>
       </c>
       <c r="D1781" t="n">
-        <v>26995</v>
+        <v>75452</v>
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -44977,11 +44977,11 @@
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>107699</v>
+        <v>30300</v>
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -45002,11 +45002,11 @@
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>30300</v>
+        <v>107699</v>
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -45402,11 +45402,11 @@
         </is>
       </c>
       <c r="D1799" t="n">
-        <v>67664</v>
+        <v>93249</v>
       </c>
       <c r="E1799" t="inlineStr">
         <is>
-          <t>healthy for them  yogurt popsicles</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -45427,11 +45427,11 @@
         </is>
       </c>
       <c r="D1800" t="n">
-        <v>93249</v>
+        <v>75452</v>
       </c>
       <c r="E1800" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -45452,11 +45452,11 @@
         </is>
       </c>
       <c r="D1801" t="n">
-        <v>23933</v>
+        <v>67664</v>
       </c>
       <c r="E1801" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -46002,11 +46002,11 @@
         </is>
       </c>
       <c r="D1823" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -46027,11 +46027,11 @@
         </is>
       </c>
       <c r="D1824" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -46052,11 +46052,11 @@
         </is>
       </c>
       <c r="D1825" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -46327,11 +46327,11 @@
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>95926</v>
+        <v>67664</v>
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -46752,11 +46752,11 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -46777,11 +46777,11 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -46802,11 +46802,11 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -47852,11 +47852,11 @@
         </is>
       </c>
       <c r="D1897" t="n">
-        <v>42570</v>
+        <v>112959</v>
       </c>
       <c r="E1897" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -47877,11 +47877,11 @@
         </is>
       </c>
       <c r="D1898" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E1898" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -47902,11 +47902,11 @@
         </is>
       </c>
       <c r="D1899" t="n">
-        <v>54100</v>
+        <v>31490</v>
       </c>
       <c r="E1899" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -47927,11 +47927,11 @@
         </is>
       </c>
       <c r="D1900" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1900" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -47952,11 +47952,11 @@
         </is>
       </c>
       <c r="D1901" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1901" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -48377,11 +48377,11 @@
         </is>
       </c>
       <c r="D1918" t="n">
-        <v>60219</v>
+        <v>112959</v>
       </c>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -48402,11 +48402,11 @@
         </is>
       </c>
       <c r="D1919" t="n">
-        <v>90921</v>
+        <v>60219</v>
       </c>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -48427,11 +48427,11 @@
         </is>
       </c>
       <c r="D1920" t="n">
-        <v>112959</v>
+        <v>90921</v>
       </c>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -49627,11 +49627,11 @@
         </is>
       </c>
       <c r="D1968" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -49652,11 +49652,11 @@
         </is>
       </c>
       <c r="D1969" t="n">
-        <v>108414</v>
+        <v>31490</v>
       </c>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -49677,11 +49677,11 @@
         </is>
       </c>
       <c r="D1970" t="n">
-        <v>42522</v>
+        <v>108414</v>
       </c>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  roasted corn and jalapeno cornbread</t>
         </is>
       </c>
     </row>
@@ -49702,11 +49702,11 @@
         </is>
       </c>
       <c r="D1971" t="n">
-        <v>93958</v>
+        <v>42522</v>
       </c>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -49802,11 +49802,11 @@
         </is>
       </c>
       <c r="D1975" t="n">
-        <v>84797</v>
+        <v>71635</v>
       </c>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -49827,11 +49827,11 @@
         </is>
       </c>
       <c r="D1976" t="n">
-        <v>71635</v>
+        <v>84797</v>
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -49852,11 +49852,11 @@
         </is>
       </c>
       <c r="D1977" t="n">
-        <v>109439</v>
+        <v>99024</v>
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -49877,11 +49877,11 @@
         </is>
       </c>
       <c r="D1978" t="n">
-        <v>99024</v>
+        <v>109439</v>
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -50252,11 +50252,11 @@
         </is>
       </c>
       <c r="D1993" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -50277,11 +50277,11 @@
         </is>
       </c>
       <c r="D1994" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -50327,11 +50327,11 @@
         </is>
       </c>
       <c r="D1996" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -50552,11 +50552,11 @@
         </is>
       </c>
       <c r="D2005" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -50577,11 +50577,11 @@
         </is>
       </c>
       <c r="D2006" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -50877,11 +50877,11 @@
         </is>
       </c>
       <c r="D2018" t="n">
-        <v>26835</v>
+        <v>30300</v>
       </c>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -50902,11 +50902,11 @@
         </is>
       </c>
       <c r="D2019" t="n">
-        <v>30300</v>
+        <v>26835</v>
       </c>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -50927,11 +50927,11 @@
         </is>
       </c>
       <c r="D2020" t="n">
-        <v>71635</v>
+        <v>25775</v>
       </c>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -50952,11 +50952,11 @@
         </is>
       </c>
       <c r="D2021" t="n">
-        <v>35653</v>
+        <v>71635</v>
       </c>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -51002,11 +51002,11 @@
         </is>
       </c>
       <c r="D2023" t="n">
-        <v>38798</v>
+        <v>25775</v>
       </c>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -51052,11 +51052,11 @@
         </is>
       </c>
       <c r="D2025" t="n">
-        <v>25775</v>
+        <v>26995</v>
       </c>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -51077,11 +51077,11 @@
         </is>
       </c>
       <c r="D2026" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -51202,11 +51202,11 @@
         </is>
       </c>
       <c r="D2031" t="n">
-        <v>83133</v>
+        <v>30300</v>
       </c>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -51302,11 +51302,11 @@
         </is>
       </c>
       <c r="D2035" t="n">
-        <v>93959</v>
+        <v>61973</v>
       </c>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>to your health  muffins</t>
         </is>
       </c>
     </row>
@@ -51377,11 +51377,11 @@
         </is>
       </c>
       <c r="D2038" t="n">
-        <v>23933</v>
+        <v>31490</v>
       </c>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -51402,11 +51402,11 @@
         </is>
       </c>
       <c r="D2039" t="n">
-        <v>35173</v>
+        <v>23933</v>
       </c>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -51427,11 +51427,11 @@
         </is>
       </c>
       <c r="D2040" t="n">
-        <v>93249</v>
+        <v>35173</v>
       </c>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -51452,11 +51452,11 @@
         </is>
       </c>
       <c r="D2041" t="n">
-        <v>63793</v>
+        <v>93249</v>
       </c>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -52252,11 +52252,11 @@
         </is>
       </c>
       <c r="D2073" t="n">
-        <v>25274</v>
+        <v>24701</v>
       </c>
       <c r="E2073" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -52277,11 +52277,11 @@
         </is>
       </c>
       <c r="D2074" t="n">
-        <v>54272</v>
+        <v>25274</v>
       </c>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -52302,11 +52302,11 @@
         </is>
       </c>
       <c r="D2075" t="n">
-        <v>81185</v>
+        <v>54272</v>
       </c>
       <c r="E2075" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -52327,11 +52327,11 @@
         </is>
       </c>
       <c r="D2076" t="n">
-        <v>24701</v>
+        <v>81185</v>
       </c>
       <c r="E2076" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>mock a mole   low fat guacamole</t>
         </is>
       </c>
     </row>
@@ -52402,11 +52402,11 @@
         </is>
       </c>
       <c r="D2079" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E2079" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -52427,11 +52427,11 @@
         </is>
       </c>
       <c r="D2080" t="n">
-        <v>23850</v>
+        <v>54272</v>
       </c>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -52452,11 +52452,11 @@
         </is>
       </c>
       <c r="D2081" t="n">
-        <v>84797</v>
+        <v>25775</v>
       </c>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -52527,11 +52527,11 @@
         </is>
       </c>
       <c r="D2084" t="n">
-        <v>43164</v>
+        <v>23850</v>
       </c>
       <c r="E2084" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -52552,11 +52552,11 @@
         </is>
       </c>
       <c r="D2085" t="n">
-        <v>42522</v>
+        <v>43164</v>
       </c>
       <c r="E2085" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -52577,11 +52577,11 @@
         </is>
       </c>
       <c r="D2086" t="n">
-        <v>23850</v>
+        <v>42522</v>
       </c>
       <c r="E2086" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -52602,11 +52602,11 @@
         </is>
       </c>
       <c r="D2087" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E2087" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -52627,11 +52627,11 @@
         </is>
       </c>
       <c r="D2088" t="n">
-        <v>83133</v>
+        <v>47366</v>
       </c>
       <c r="E2088" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -52652,11 +52652,11 @@
         </is>
       </c>
       <c r="D2089" t="n">
-        <v>25775</v>
+        <v>83133</v>
       </c>
       <c r="E2089" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -53827,11 +53827,11 @@
         </is>
       </c>
       <c r="D2136" t="n">
-        <v>42570</v>
+        <v>107699</v>
       </c>
       <c r="E2136" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -53852,11 +53852,11 @@
         </is>
       </c>
       <c r="D2137" t="n">
-        <v>35964</v>
+        <v>107699</v>
       </c>
       <c r="E2137" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -53877,11 +53877,11 @@
         </is>
       </c>
       <c r="D2138" t="n">
-        <v>107699</v>
+        <v>35964</v>
       </c>
       <c r="E2138" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -54002,11 +54002,11 @@
         </is>
       </c>
       <c r="D2143" t="n">
-        <v>62368</v>
+        <v>107699</v>
       </c>
       <c r="E2143" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -54027,11 +54027,11 @@
         </is>
       </c>
       <c r="D2144" t="n">
-        <v>63793</v>
+        <v>62368</v>
       </c>
       <c r="E2144" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -54052,11 +54052,11 @@
         </is>
       </c>
       <c r="D2145" t="n">
-        <v>22526</v>
+        <v>63793</v>
       </c>
       <c r="E2145" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -54077,11 +54077,11 @@
         </is>
       </c>
       <c r="D2146" t="n">
-        <v>107699</v>
+        <v>22526</v>
       </c>
       <c r="E2146" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -55352,11 +55352,11 @@
         </is>
       </c>
       <c r="D2197" t="n">
-        <v>52804</v>
+        <v>107699</v>
       </c>
       <c r="E2197" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -55377,11 +55377,11 @@
         </is>
       </c>
       <c r="D2198" t="n">
-        <v>107699</v>
+        <v>52804</v>
       </c>
       <c r="E2198" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -56527,11 +56527,11 @@
         </is>
       </c>
       <c r="D2244" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -56552,11 +56552,11 @@
         </is>
       </c>
       <c r="D2245" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -56577,11 +56577,11 @@
         </is>
       </c>
       <c r="D2246" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -56852,11 +56852,11 @@
         </is>
       </c>
       <c r="D2257" t="n">
-        <v>71635</v>
+        <v>71457</v>
       </c>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -56877,11 +56877,11 @@
         </is>
       </c>
       <c r="D2258" t="n">
-        <v>62368</v>
+        <v>71635</v>
       </c>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -56902,11 +56902,11 @@
         </is>
       </c>
       <c r="D2259" t="n">
-        <v>71457</v>
+        <v>62368</v>
       </c>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -57052,11 +57052,11 @@
         </is>
       </c>
       <c r="D2265" t="n">
-        <v>107699</v>
+        <v>71457</v>
       </c>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -57077,11 +57077,11 @@
         </is>
       </c>
       <c r="D2266" t="n">
-        <v>26995</v>
+        <v>107699</v>
       </c>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -57252,11 +57252,11 @@
         </is>
       </c>
       <c r="D2273" t="n">
-        <v>54100</v>
+        <v>71457</v>
       </c>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -57277,11 +57277,11 @@
         </is>
       </c>
       <c r="D2274" t="n">
-        <v>35964</v>
+        <v>54100</v>
       </c>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -57302,11 +57302,11 @@
         </is>
       </c>
       <c r="D2275" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -57327,11 +57327,11 @@
         </is>
       </c>
       <c r="D2276" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -58252,11 +58252,11 @@
         </is>
       </c>
       <c r="D2313" t="n">
-        <v>25274</v>
+        <v>60219</v>
       </c>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -58277,11 +58277,11 @@
         </is>
       </c>
       <c r="D2314" t="n">
-        <v>60219</v>
+        <v>25274</v>
       </c>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -58302,11 +58302,11 @@
         </is>
       </c>
       <c r="D2315" t="n">
-        <v>54100</v>
+        <v>32169</v>
       </c>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -58327,11 +58327,11 @@
         </is>
       </c>
       <c r="D2316" t="n">
-        <v>107229</v>
+        <v>54100</v>
       </c>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -58402,11 +58402,11 @@
         </is>
       </c>
       <c r="D2319" t="n">
-        <v>49262</v>
+        <v>32169</v>
       </c>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -58427,11 +58427,11 @@
         </is>
       </c>
       <c r="D2320" t="n">
-        <v>107229</v>
+        <v>49262</v>
       </c>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -58452,11 +58452,11 @@
         </is>
       </c>
       <c r="D2321" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -58477,11 +58477,11 @@
         </is>
       </c>
       <c r="D2322" t="n">
-        <v>107229</v>
+        <v>32169</v>
       </c>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -58502,11 +58502,11 @@
         </is>
       </c>
       <c r="D2323" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -58627,11 +58627,11 @@
         </is>
       </c>
       <c r="D2328" t="n">
-        <v>33606</v>
+        <v>30300</v>
       </c>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -58652,11 +58652,11 @@
         </is>
       </c>
       <c r="D2329" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -58677,11 +58677,11 @@
         </is>
       </c>
       <c r="D2330" t="n">
-        <v>31490</v>
+        <v>32169</v>
       </c>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -58702,11 +58702,11 @@
         </is>
       </c>
       <c r="D2331" t="n">
-        <v>30300</v>
+        <v>31490</v>
       </c>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -58777,11 +58777,11 @@
         </is>
       </c>
       <c r="D2334" t="n">
-        <v>83950</v>
+        <v>60219</v>
       </c>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -58802,11 +58802,11 @@
         </is>
       </c>
       <c r="D2335" t="n">
-        <v>60219</v>
+        <v>83950</v>
       </c>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>real  italian bolognese sauce</t>
         </is>
       </c>
     </row>
@@ -58927,11 +58927,11 @@
         </is>
       </c>
       <c r="D2340" t="n">
-        <v>35173</v>
+        <v>30300</v>
       </c>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -58952,11 +58952,11 @@
         </is>
       </c>
       <c r="D2341" t="n">
-        <v>100870</v>
+        <v>35173</v>
       </c>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -60277,11 +60277,11 @@
         </is>
       </c>
       <c r="D2394" t="n">
-        <v>35173</v>
+        <v>111875</v>
       </c>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -60302,11 +60302,11 @@
         </is>
       </c>
       <c r="D2395" t="n">
-        <v>44895</v>
+        <v>35173</v>
       </c>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>symphony  brownies</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -60327,11 +60327,11 @@
         </is>
       </c>
       <c r="D2396" t="n">
-        <v>108414</v>
+        <v>44895</v>
       </c>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>symphony  brownies</t>
         </is>
       </c>
     </row>
@@ -60402,11 +60402,11 @@
         </is>
       </c>
       <c r="D2399" t="n">
-        <v>74805</v>
+        <v>111875</v>
       </c>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -60427,11 +60427,11 @@
         </is>
       </c>
       <c r="D2400" t="n">
-        <v>23933</v>
+        <v>74805</v>
       </c>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -60452,11 +60452,11 @@
         </is>
       </c>
       <c r="D2401" t="n">
-        <v>42522</v>
+        <v>23933</v>
       </c>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -61377,11 +61377,11 @@
         </is>
       </c>
       <c r="D2438" t="n">
-        <v>27087</v>
+        <v>39947</v>
       </c>
       <c r="E2438" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sugared grapes</t>
         </is>
       </c>
     </row>
@@ -61402,11 +61402,11 @@
         </is>
       </c>
       <c r="D2439" t="n">
-        <v>39947</v>
+        <v>27087</v>
       </c>
       <c r="E2439" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -61652,11 +61652,11 @@
         </is>
       </c>
       <c r="D2449" t="n">
-        <v>30300</v>
+        <v>71635</v>
       </c>
       <c r="E2449" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -61677,11 +61677,11 @@
         </is>
       </c>
       <c r="D2450" t="n">
-        <v>39363</v>
+        <v>30300</v>
       </c>
       <c r="E2450" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -61702,11 +61702,11 @@
         </is>
       </c>
       <c r="D2451" t="n">
-        <v>84797</v>
+        <v>39363</v>
       </c>
       <c r="E2451" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -61877,11 +61877,11 @@
         </is>
       </c>
       <c r="D2458" t="n">
-        <v>23933</v>
+        <v>39947</v>
       </c>
       <c r="E2458" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>sugared grapes</t>
         </is>
       </c>
     </row>
@@ -61902,11 +61902,11 @@
         </is>
       </c>
       <c r="D2459" t="n">
-        <v>39947</v>
+        <v>23933</v>
       </c>
       <c r="E2459" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -61927,11 +61927,11 @@
         </is>
       </c>
       <c r="D2460" t="n">
-        <v>74805</v>
+        <v>71635</v>
       </c>
       <c r="E2460" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -61952,11 +61952,11 @@
         </is>
       </c>
       <c r="D2461" t="n">
-        <v>62368</v>
+        <v>74805</v>
       </c>
       <c r="E2461" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -62752,11 +62752,11 @@
         </is>
       </c>
       <c r="D2493" t="n">
-        <v>103948</v>
+        <v>31490</v>
       </c>
       <c r="E2493" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -62777,11 +62777,11 @@
         </is>
       </c>
       <c r="D2494" t="n">
-        <v>39363</v>
+        <v>103948</v>
       </c>
       <c r="E2494" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>smells like sunday  chicken fricassee with meatballs</t>
         </is>
       </c>
     </row>
@@ -62802,11 +62802,11 @@
         </is>
       </c>
       <c r="D2495" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E2495" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -62827,11 +62827,11 @@
         </is>
       </c>
       <c r="D2496" t="n">
-        <v>25775</v>
+        <v>39363</v>
       </c>
       <c r="E2496" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -62877,11 +62877,11 @@
         </is>
       </c>
       <c r="D2498" t="n">
-        <v>22526</v>
+        <v>31490</v>
       </c>
       <c r="E2498" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -62902,11 +62902,11 @@
         </is>
       </c>
       <c r="D2499" t="n">
-        <v>71457</v>
+        <v>22526</v>
       </c>
       <c r="E2499" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -62927,11 +62927,11 @@
         </is>
       </c>
       <c r="D2500" t="n">
-        <v>107229</v>
+        <v>71457</v>
       </c>
       <c r="E2500" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -62952,11 +62952,11 @@
         </is>
       </c>
       <c r="D2501" t="n">
-        <v>64045</v>
+        <v>25775</v>
       </c>
       <c r="E2501" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -63077,11 +63077,11 @@
         </is>
       </c>
       <c r="D2506" t="n">
-        <v>107699</v>
+        <v>31490</v>
       </c>
       <c r="E2506" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -63102,11 +63102,11 @@
         </is>
       </c>
       <c r="D2507" t="n">
-        <v>63793</v>
+        <v>31490</v>
       </c>
       <c r="E2507" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -63127,11 +63127,11 @@
         </is>
       </c>
       <c r="D2508" t="n">
-        <v>42570</v>
+        <v>63793</v>
       </c>
       <c r="E2508" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -63152,11 +63152,11 @@
         </is>
       </c>
       <c r="D2509" t="n">
-        <v>31490</v>
+        <v>42570</v>
       </c>
       <c r="E2509" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -63327,11 +63327,11 @@
         </is>
       </c>
       <c r="D2516" t="n">
-        <v>95926</v>
+        <v>87098</v>
       </c>
       <c r="E2516" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -63427,11 +63427,11 @@
         </is>
       </c>
       <c r="D2520" t="n">
-        <v>90921</v>
+        <v>31490</v>
       </c>
       <c r="E2520" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -63452,11 +63452,11 @@
         </is>
       </c>
       <c r="D2521" t="n">
-        <v>60219</v>
+        <v>90921</v>
       </c>
       <c r="E2521" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -64277,11 +64277,11 @@
         </is>
       </c>
       <c r="D2554" t="n">
-        <v>27087</v>
+        <v>112959</v>
       </c>
       <c r="E2554" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -64302,11 +64302,11 @@
         </is>
       </c>
       <c r="D2555" t="n">
-        <v>112959</v>
+        <v>27087</v>
       </c>
       <c r="E2555" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -64402,11 +64402,11 @@
         </is>
       </c>
       <c r="D2559" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E2559" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -64427,11 +64427,11 @@
         </is>
       </c>
       <c r="D2560" t="n">
-        <v>42570</v>
+        <v>54272</v>
       </c>
       <c r="E2560" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -64452,11 +64452,11 @@
         </is>
       </c>
       <c r="D2561" t="n">
-        <v>8559</v>
+        <v>42570</v>
       </c>
       <c r="E2561" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -64827,11 +64827,11 @@
         </is>
       </c>
       <c r="D2576" t="n">
-        <v>90921</v>
+        <v>23850</v>
       </c>
       <c r="E2576" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -64877,11 +64877,11 @@
         </is>
       </c>
       <c r="D2578" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -64902,11 +64902,11 @@
         </is>
       </c>
       <c r="D2579" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -65902,11 +65902,11 @@
         </is>
       </c>
       <c r="D2619" t="n">
-        <v>33606</v>
+        <v>87098</v>
       </c>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -65927,11 +65927,11 @@
         </is>
       </c>
       <c r="D2620" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -65952,11 +65952,11 @@
         </is>
       </c>
       <c r="D2621" t="n">
-        <v>90921</v>
+        <v>32169</v>
       </c>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -66327,11 +66327,11 @@
         </is>
       </c>
       <c r="D2636" t="n">
-        <v>112959</v>
+        <v>32169</v>
       </c>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -66352,11 +66352,11 @@
         </is>
       </c>
       <c r="D2637" t="n">
-        <v>112959</v>
+        <v>90921</v>
       </c>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -66377,11 +66377,11 @@
         </is>
       </c>
       <c r="D2638" t="n">
-        <v>90921</v>
+        <v>112959</v>
       </c>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
